--- a/Grid_5x5/Solutions/Solution_NDP_S011/Spreadsheet/VIS17_PuTAss_CapaRestYes_TI_01min_v02.xlsx
+++ b/Grid_5x5/Solutions/Solution_NDP_S011/Spreadsheet/VIS17_PuTAss_CapaRestYes_TI_01min_v02.xlsx
@@ -738,7 +738,7 @@
     <t>sum of costs for fuel, repair, etc. depending on kilometric performance</t>
   </si>
   <si>
-    <t>23.10.2018 12:37:30</t>
+    <t>30.10.2018 12:05:43</t>
   </si>
   <si>
     <t>02_Grid</t>
@@ -753,7 +753,7 @@
     <t xml:space="preserve"> First full algorithmic solution but still including the planner lines</t>
   </si>
   <si>
-    <t>02_Grid_N01_S01_V010_VISUM17_EN_A_1_5.ver</t>
+    <t>02_Grid_N01_S01_V011_VISUM17_EN_A_1_5.ver</t>
   </si>
   <si>
     <t>02_Grid_Linien_A_1_5.net</t>
@@ -1584,8 +1584,8 @@
       <xdr:rowOff>12700</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>190178</xdr:colOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>403590</xdr:colOff>
       <xdr:row>25</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
@@ -1606,7 +1606,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="12700"/>
-          <a:ext cx="6762428" cy="4749800"/>
+          <a:ext cx="5737590" cy="4749800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1623,8 +1623,8 @@
       <xdr:rowOff>12700</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>190178</xdr:colOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>403590</xdr:colOff>
       <xdr:row>51</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
@@ -1645,7 +1645,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="4965700"/>
-          <a:ext cx="6762428" cy="4749800"/>
+          <a:ext cx="5737590" cy="4749800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1662,8 +1662,8 @@
       <xdr:rowOff>12700</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>190178</xdr:colOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>403590</xdr:colOff>
       <xdr:row>77</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
@@ -1684,7 +1684,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="9918700"/>
-          <a:ext cx="6762428" cy="4749800"/>
+          <a:ext cx="5737590" cy="4749800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2608,7 +2608,7 @@
         <v>166</v>
       </c>
       <c r="C39" s="38">
-        <v>19.511986226286634</v>
+        <v>19.511986226286641</v>
       </c>
       <c r="D39" s="22" t="s">
         <v>129</v>
@@ -2628,7 +2628,7 @@
         <v>200</v>
       </c>
       <c r="C40" s="39">
-        <v>20.636760779676397</v>
+        <v>21.327262948865464</v>
       </c>
       <c r="D40" s="22" t="s">
         <v>129</v>

--- a/Grid_5x5/Solutions/Solution_NDP_S011/Spreadsheet/VIS17_PuTAss_CapaRestYes_TI_01min_v02.xlsx
+++ b/Grid_5x5/Solutions/Solution_NDP_S011/Spreadsheet/VIS17_PuTAss_CapaRestYes_TI_01min_v02.xlsx
@@ -2608,7 +2608,7 @@
         <v>166</v>
       </c>
       <c r="C39" s="38">
-        <v>19.511986226286641</v>
+        <v>19.511986226286634</v>
       </c>
       <c r="D39" s="22" t="s">
         <v>129</v>
@@ -2628,7 +2628,7 @@
         <v>200</v>
       </c>
       <c r="C40" s="39">
-        <v>21.327262948865464</v>
+        <v>21.327262948865457</v>
       </c>
       <c r="D40" s="22" t="s">
         <v>129</v>
@@ -2648,7 +2648,7 @@
         <v>201</v>
       </c>
       <c r="C41" s="39">
-        <v>0.29562047694572108</v>
+        <v>0.29562047694572102</v>
       </c>
       <c r="D41" s="22" t="s">
         <v>42</v>
